--- a/result/with_base/134/valence/s15_2.xlsx
+++ b/result/with_base/134/valence/s15_2.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9720982015132904</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8325000107288361</v>
+        <v>0.8822544515132904</v>
       </c>
       <c r="C2" t="n">
-        <v>41743.3359375</v>
+        <v>11286.5380859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8475000045516274</v>
+        <v>0.8626575645278481</v>
       </c>
       <c r="E2" t="n">
-        <v>41742.95561079546</v>
+        <v>11287.18761488971</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9024999737739563</v>
+        <v>0.93359375</v>
       </c>
       <c r="C3" t="n">
-        <v>40956.72265625</v>
+        <v>10976.9912109375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.893068172714927</v>
+        <v>0.9136685939396129</v>
       </c>
       <c r="E3" t="n">
-        <v>40958.20028409091</v>
+        <v>10977.67290900735</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C4" t="n">
-        <v>40182.37109375</v>
+        <v>10672.869140625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9084090915593234</v>
+        <v>0.9248293077244478</v>
       </c>
       <c r="E4" t="n">
-        <v>40182.41512784091</v>
+        <v>10673.12683823529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C5" t="n">
-        <v>39414.125</v>
+        <v>10374.1884765625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.932727266441692</v>
+        <v>0.9374343472368577</v>
       </c>
       <c r="E5" t="n">
-        <v>39413.86931818182</v>
+        <v>10374.24528952206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9375</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38659.2109375</v>
+        <v>10082.0888671875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9339772733775052</v>
+        <v>0.9463629196671879</v>
       </c>
       <c r="E6" t="n">
-        <v>38658.72478693182</v>
+        <v>10081.84903492647</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C7" t="n">
-        <v>37913.990234375</v>
+        <v>9796.4814453125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9560227285731923</v>
+        <v>0.9514180667260114</v>
       </c>
       <c r="E7" t="n">
-        <v>37914.41974431818</v>
+        <v>9796.08536305147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C8" t="n">
-        <v>37183.72265625</v>
+        <v>9517.7314453125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.959999989379536</v>
+        <v>0.9506959038622239</v>
       </c>
       <c r="E8" t="n">
-        <v>37183.23117897727</v>
+        <v>9517.400562959559</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36465.830078125</v>
+        <v>9245.45849609375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9628409093076532</v>
+        <v>0.9640231097445768</v>
       </c>
       <c r="E9" t="n">
-        <v>36464.66761363636</v>
+        <v>9245.190774356617</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9637276828289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35759.650390625</v>
+        <v>8980.24853515625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9695454619147561</v>
+        <v>0.9638918077244478</v>
       </c>
       <c r="E10" t="n">
-        <v>35758.41832386364</v>
+        <v>8980.016888786764</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C11" t="n">
-        <v>35065.326171875</v>
+        <v>8721.77197265625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9742045619271018</v>
+        <v>0.9660582998219658</v>
       </c>
       <c r="E11" t="n">
-        <v>35064.60830965909</v>
+        <v>8721.408892463236</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C12" t="n">
-        <v>34383.751953125</v>
+        <v>8469.68701171875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9735227443955161</v>
+        <v>0.9657956922755522</v>
       </c>
       <c r="E12" t="n">
-        <v>34383.31427556818</v>
+        <v>8469.515452665441</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C13" t="n">
-        <v>33714.9921875</v>
+        <v>8224.4462890625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9746590852737427</v>
+        <v>0.9657300430185655</v>
       </c>
       <c r="E13" t="n">
-        <v>33714.10475852273</v>
+        <v>8224.279181985294</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C14" t="n">
-        <v>33057.91796875</v>
+        <v>7985.58251953125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9787500067190691</v>
+        <v>0.9815519942956812</v>
       </c>
       <c r="E14" t="n">
-        <v>33057.03480113636</v>
+        <v>7985.310288373162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32412.912109375</v>
+        <v>7753.080322265625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9761363701386885</v>
+        <v>0.9783350825309753</v>
       </c>
       <c r="E15" t="n">
-        <v>32412.12180397727</v>
+        <v>7752.802734375</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31780.2802734375</v>
+        <v>7526.7255859375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9694318175315857</v>
+        <v>0.9838497884133283</v>
       </c>
       <c r="E16" t="n">
-        <v>31779.01740056818</v>
+        <v>7526.357364430147</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31157.810546875</v>
+        <v>7306.266357421875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9871591004458341</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E17" t="n">
-        <v>31157.14932528409</v>
+        <v>7305.958065257353</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9720982015132904</v>
       </c>
       <c r="C18" t="n">
-        <v>30547.7392578125</v>
+        <v>7091.62109375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9843181967735291</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E18" t="n">
-        <v>30547.09286221591</v>
+        <v>7091.405819163603</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="C19" t="n">
-        <v>29949.2880859375</v>
+        <v>6883.0537109375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9865909218788147</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E19" t="n">
-        <v>29948.20472301136</v>
+        <v>6882.685834099265</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C20" t="n">
-        <v>29361.6298828125</v>
+        <v>6679.8837890625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9844318303194913</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E20" t="n">
-        <v>29360.46395596591</v>
+        <v>6679.537655101103</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C21" t="n">
-        <v>28784.1513671875</v>
+        <v>6482.28857421875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9837841391563416</v>
       </c>
       <c r="E21" t="n">
-        <v>28783.44442471591</v>
+        <v>6481.916676240809</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9681919515132904</v>
       </c>
       <c r="C22" t="n">
-        <v>28218.0986328125</v>
+        <v>6289.847412109375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9853409203616056</v>
+        <v>0.9796481097445768</v>
       </c>
       <c r="E22" t="n">
-        <v>28217.46413352273</v>
+        <v>6289.594410615809</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27662.2470703125</v>
+        <v>6103.052734375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9888636415654962</v>
+        <v>0.9538471628637875</v>
       </c>
       <c r="E23" t="n">
-        <v>27661.81622869318</v>
+        <v>6102.668772977941</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C24" t="n">
-        <v>27117.275390625</v>
+        <v>5920.818603515625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E24" t="n">
-        <v>27116.47585227273</v>
+        <v>5920.53369140625</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C25" t="n">
-        <v>26582.248046875</v>
+        <v>5743.965576171875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E25" t="n">
-        <v>26581.39222301136</v>
+        <v>5743.678079044118</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C26" t="n">
-        <v>26056.9267578125</v>
+        <v>5571.8955078125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9897727370262146</v>
+        <v>0.9812237409984365</v>
       </c>
       <c r="E26" t="n">
-        <v>26056.36772017046</v>
+        <v>5571.658030790441</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C27" t="n">
-        <v>25541.7392578125</v>
+        <v>5404.643310546875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9857536764705882</v>
       </c>
       <c r="E27" t="n">
-        <v>25541.00816761364</v>
+        <v>5404.314223345588</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25036.0244140625</v>
+        <v>5241.839111328125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9909090941602533</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E28" t="n">
-        <v>25035.3984375</v>
+        <v>5241.537281709559</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C29" t="n">
-        <v>24539.517578125</v>
+        <v>5083.528564453125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E29" t="n">
-        <v>24539.193359375</v>
+        <v>5083.261833639706</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="C30" t="n">
-        <v>24053.052734375</v>
+        <v>4929.687744140625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E30" t="n">
-        <v>24052.38370028409</v>
+        <v>4929.3837890625</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C31" t="n">
-        <v>23575.21875</v>
+        <v>4780.082275390625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E31" t="n">
-        <v>23574.66708096591</v>
+        <v>4779.749080882353</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C32" t="n">
-        <v>23106.5322265625</v>
+        <v>4634.447509765625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E32" t="n">
-        <v>23105.90731534091</v>
+        <v>4634.241038602941</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C33" t="n">
-        <v>22647.01171875</v>
+        <v>4493.074951171875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E33" t="n">
-        <v>22645.99129971591</v>
+        <v>4492.839183134191</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C34" t="n">
-        <v>22195.33984375</v>
+        <v>4355.540771484375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9946590932932767</v>
+        <v>0.9843093472368577</v>
       </c>
       <c r="E34" t="n">
-        <v>22194.75443892046</v>
+        <v>4355.365377987132</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C35" t="n">
-        <v>21752.6083984375</v>
+        <v>4222.094970703125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.980173317825093</v>
       </c>
       <c r="E35" t="n">
-        <v>21751.98774857954</v>
+        <v>4221.81583180147</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="C36" t="n">
-        <v>21318.181640625</v>
+        <v>4092.163330078125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.996363639831543</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E36" t="n">
-        <v>21317.60564630682</v>
+        <v>4091.933909696691</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C37" t="n">
-        <v>20891.8447265625</v>
+        <v>3965.903564453125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E37" t="n">
-        <v>20891.33203125</v>
+        <v>3965.70361328125</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C38" t="n">
-        <v>20473.4267578125</v>
+        <v>3843.239624023438</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E38" t="n">
-        <v>20473.06196732954</v>
+        <v>3843.011560776654</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9637276828289032</v>
       </c>
       <c r="C39" t="n">
-        <v>20063.158203125</v>
+        <v>3724.025146484375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E39" t="n">
-        <v>20062.67489346591</v>
+        <v>3723.825066061581</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C40" t="n">
-        <v>19660.55078125</v>
+        <v>3608.2392578125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9791228981579051</v>
       </c>
       <c r="E40" t="n">
-        <v>19660.01935369318</v>
+        <v>3608.006821576287</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19265.3642578125</v>
+        <v>3495.619506835938</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E41" t="n">
-        <v>19264.97958096591</v>
+        <v>3495.425580193015</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18877.9814453125</v>
+        <v>3386.3388671875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9713760509210474</v>
       </c>
       <c r="E42" t="n">
-        <v>18877.43022017046</v>
+        <v>3386.118178423713</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18497.953125</v>
+        <v>3280.034301757812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9868697489009184</v>
       </c>
       <c r="E43" t="n">
-        <v>18497.18448153409</v>
+        <v>3279.837387982537</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18124.6064453125</v>
+        <v>3176.759399414062</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9874606097445768</v>
       </c>
       <c r="E44" t="n">
-        <v>18124.15269886364</v>
+        <v>3176.612189797794</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C45" t="n">
-        <v>17758.6630859375</v>
+        <v>3076.473388671875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9880514705882353</v>
       </c>
       <c r="E45" t="n">
-        <v>17758.12091619318</v>
+        <v>3076.347282858456</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C46" t="n">
-        <v>17399.3173828125</v>
+        <v>2979.113891601562</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E46" t="n">
-        <v>17399.00106534091</v>
+        <v>2978.960779526654</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="C47" t="n">
-        <v>17046.91796875</v>
+        <v>2884.493041992188</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9805672273916357</v>
       </c>
       <c r="E47" t="n">
-        <v>17046.71448863636</v>
+        <v>2884.378288717831</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C48" t="n">
-        <v>16701.6357421875</v>
+        <v>2792.590454101562</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E48" t="n">
-        <v>16701.10688920454</v>
+        <v>2792.472943474265</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C49" t="n">
-        <v>16362.55517578125</v>
+        <v>2703.376098632812</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9861475825309753</v>
       </c>
       <c r="E49" t="n">
-        <v>16362.06258877841</v>
+        <v>2703.27197265625</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9637276828289032</v>
       </c>
       <c r="C50" t="n">
-        <v>16029.6318359375</v>
+        <v>2616.774536132812</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9820115531192106</v>
       </c>
       <c r="E50" t="n">
-        <v>16029.419921875</v>
+        <v>2616.637120863971</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,839 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9720982015132904</v>
       </c>
       <c r="C51" t="n">
-        <v>15703.439453125</v>
+        <v>2532.645141601562</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9674369762925541</v>
       </c>
       <c r="E51" t="n">
-        <v>15703.13725142045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15383.21630859375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15383.04332386364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15069.36962890625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15069.04128196023</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14761.25927734375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9934090971946716</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14761.00017755682</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14458.98681640625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14458.76811079545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14162.56494140625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14162.3447265625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13872.001953125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13871.60014204545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13586.6640625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13586.36452414773</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13306.75537109375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13306.59508167614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13032.40283203125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13032.15323153409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9825000166893005</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12763.24853515625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12762.96866122159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12499.22265625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9930681857195768</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12498.93279474432</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9825000166893005</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12240.1357421875</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12239.93208451705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11986.38232421875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11985.95392400568</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11736.986328125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11736.80033735795</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11492.75439453125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11492.44957386364</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11253.0595703125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11252.79518821023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11017.966796875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11017.75230823864</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10787.5380859375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10787.24564985795</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10561.42724609375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10561.1923828125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10339.74365234375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10339.49769176136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10122.3955078125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10122.10884232955</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9909.08984375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9908.911399147728</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9699.97412109375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9699.839577414772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9495.08203125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9494.841352982954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9293.98681640625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9293.802112926136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9096.8837890625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9096.689719460228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8903.5576171875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8903.405983664772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8714.0830078125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9907954606142911</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8713.92959872159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8528.29931640625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9870454668998718</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8528.14248934659</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8346.04833984375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8345.939186789772</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6290322580645161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6774193548387096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6935483870967742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.717741935483871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7338709677419355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7338709677419355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9919354838709677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.146551724137931</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9919354838709677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.146551724137931</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8017241379310345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8362068965517241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.853448275862069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.853448275862069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9827586206896551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9827586206896551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9913793103448276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2661290322580645</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9913793103448276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2661290322580645</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.996384872080089</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>2532.584788602941</v>
       </c>
     </row>
   </sheetData>
